--- a/Vacantes/Vacantes_ColegioSRosa.xlsx
+++ b/Vacantes/Vacantes_ColegioSRosa.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Red3f737d1d604806"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rb8ddf29c295a474d"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <x:si>
     <x:t>nro_inscripcion</x:t>
   </x:si>
@@ -80,9 +80,6 @@
     <x:t>Cecilia Peralta</x:t>
   </x:si>
   <x:si>
-    <x:t>Luisa Aguilera</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hugo Martinez</x:t>
   </x:si>
   <x:si>
@@ -125,6 +122,9 @@
     <x:t>Julieta Fernandez</x:t>
   </x:si>
   <x:si>
+    <x:t>Luisa Pérez</x:t>
+  </x:si>
+  <x:si>
     <x:t>María Sánchez</x:t>
   </x:si>
   <x:si>
@@ -134,9 +134,6 @@
     <x:t>Luisa Ramos</x:t>
   </x:si>
   <x:si>
-    <x:t>Fernando Peralta</x:t>
-  </x:si>
-  <x:si>
     <x:t>Manuel González</x:t>
   </x:si>
   <x:si>
@@ -146,19 +143,13 @@
     <x:t>Diego Ramos</x:t>
   </x:si>
   <x:si>
-    <x:t>Alberto Ramos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diego Torres</x:t>
-  </x:si>
-  <x:si>
     <x:t>Luisa Chavez</x:t>
   </x:si>
   <x:si>
     <x:t>Victoria Fernandez</x:t>
   </x:si>
   <x:si>
-    <x:t>Julieta Sánchez</x:t>
+    <x:t>Cecilia Aguilera</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:D50"/>
+  <x:dimension ref="A1:D47"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -763,52 +754,52 @@
     </x:row>
     <x:row r="20">
       <x:c r="A20">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B20" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C20">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D20">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B21" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C21">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D21">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C22">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D22">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C23">
         <x:v>9</x:v>
@@ -819,63 +810,63 @@
     </x:row>
     <x:row r="24">
       <x:c r="A24">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B24" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D24">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B25" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D25">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B26" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C26">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D26">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B27" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C27">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D27">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B28" t="s">
         <x:v>29</x:v>
@@ -889,66 +880,66 @@
     </x:row>
     <x:row r="29">
       <x:c r="A29">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B29" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D29">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B30" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D30">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B31" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C31">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D31">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B32" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="C32">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D32">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B33" t="s">
-        <x:v>34</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C33">
         <x:v>7</x:v>
@@ -959,21 +950,21 @@
     </x:row>
     <x:row r="34">
       <x:c r="A34">
-        <x:v>80</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B34" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C34">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D34">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B35" t="s">
         <x:v>35</x:v>
@@ -987,16 +978,16 @@
     </x:row>
     <x:row r="36">
       <x:c r="A36">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B36" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="C36">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D36">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
@@ -1060,7 +1051,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C41">
         <x:v>10</x:v>
@@ -1071,7 +1062,7 @@
     </x:row>
     <x:row r="42">
       <x:c r="A42">
-        <x:v>123</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B42" t="s">
         <x:v>40</x:v>
@@ -1085,7 +1076,7 @@
     </x:row>
     <x:row r="43">
       <x:c r="A43">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B43" t="s">
         <x:v>41</x:v>
@@ -1099,7 +1090,7 @@
     </x:row>
     <x:row r="44">
       <x:c r="A44">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B44" t="s">
         <x:v>42</x:v>
@@ -1113,7 +1104,7 @@
     </x:row>
     <x:row r="45">
       <x:c r="A45">
-        <x:v>132</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B45" t="s">
         <x:v>43</x:v>
@@ -1127,7 +1118,7 @@
     </x:row>
     <x:row r="46">
       <x:c r="A46">
-        <x:v>147</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B46" t="s">
         <x:v>44</x:v>
@@ -1141,7 +1132,7 @@
     </x:row>
     <x:row r="47">
       <x:c r="A47">
-        <x:v>151</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B47" t="s">
         <x:v>45</x:v>
@@ -1150,48 +1141,6 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D47">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48">
-      <x:c r="A48">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="B48" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C48">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D48">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49">
-      <x:c r="A49">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="B49" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C49">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D49">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50">
-      <x:c r="A50">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="B50" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C50">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D50">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/Vacantes/Vacantes_ColegioSRosa.xlsx
+++ b/Vacantes/Vacantes_ColegioSRosa.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rb8ddf29c295a474d"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rde62da4861e24199"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Vacantes_ColegioSRosa.xlsx
+++ b/Vacantes/Vacantes_ColegioSRosa.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rde62da4861e24199"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R8f0ff03f8c344081"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Vacantes_ColegioSRosa.xlsx
+++ b/Vacantes/Vacantes_ColegioSRosa.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R8f0ff03f8c344081"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Ra45e3b8e85474f61"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Vacantes_ColegioSRosa.xlsx
+++ b/Vacantes/Vacantes_ColegioSRosa.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Ra45e3b8e85474f61"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R524fcb58ea864423"/>
   </x:sheets>
 </x:workbook>
 </file>
